--- a/tennis_book_table.xlsx
+++ b/tennis_book_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pj\selenium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5999E9-2AB0-4674-8576-F017487E0EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5292E48C-4102-46EE-B957-DEC4B65E9F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="860" xr2:uid="{009F9442-13E0-422C-92B8-D127C516E97B}"/>
   </bookViews>
@@ -48,14 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="60">
-  <si>
-    <t>団体名</t>
-    <rPh sb="0" eb="3">
-      <t>ダンタイメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="58">
   <si>
     <t>山下</t>
     <rPh sb="0" eb="2">
@@ -329,14 +322,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SpecialDate_Month</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SpecialDate_Day</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Timeslot</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -347,6 +332,10 @@
     <t>共用Ｃ</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -354,7 +343,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="hh:mm"/>
-    <numFmt numFmtId="180" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -419,7 +408,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -435,28 +424,19 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -550,12 +530,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{82FA74CF-B7E1-4A03-9770-9F2465883F97}" name="User" displayName="User" ref="A1:D7" totalsRowShown="0">
-  <autoFilter ref="A1:D7" xr:uid="{82FA74CF-B7E1-4A03-9770-9F2465883F97}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{82FA74CF-B7E1-4A03-9770-9F2465883F97}" name="User" displayName="User" ref="A1:D5" totalsRowShown="0">
+  <autoFilter ref="A1:D5" xr:uid="{82FA74CF-B7E1-4A03-9770-9F2465883F97}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{0E14C2CC-EEBD-4C0A-AFAA-21A763BF3936}" name="ID" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{2F5EA79F-85D9-43CC-9023-EF5498EF74B6}" name="Password" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{5C9A4EC8-94BC-4190-AA60-75BEA0E0842E}" name="団体名"/>
+    <tableColumn id="3" xr3:uid="{5C9A4EC8-94BC-4190-AA60-75BEA0E0842E}" name="Name"/>
     <tableColumn id="4" xr3:uid="{311DB4D4-599C-4E2E-B252-8E6551DBAFE9}" name="TimePattern"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -909,10 +889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F9F9955-52FE-42F9-8C6D-0DBE8AB9F147}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -925,61 +905,73 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="2">
-        <v>52003401</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="A2" s="8">
+        <v>51010034</v>
+      </c>
+      <c r="B2" s="8">
         <v>1234</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>41</v>
+      <c r="C2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
-        <v>52003400</v>
+        <v>51010035</v>
       </c>
       <c r="B3" s="2">
         <v>1234</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="A4" s="8">
+        <v>50020623</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1234</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="A5" s="9">
+        <v>52002338</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1234</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -994,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B9B8BD-4052-403E-B293-911624F1E6FE}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1010,39 +1002,39 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" t="s">
         <v>52</v>
-      </c>
-      <c r="H1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
       </c>
       <c r="E2" s="2" t="str">
         <f>IF(AND(G2&lt;&gt;"",H2&lt;&gt;""),TEXT(G2,"H:MM")&amp;"～"&amp;TEXT(H2,"H:MM"),"")</f>
@@ -1057,16 +1049,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
       </c>
       <c r="E3" s="2" t="str">
         <f t="shared" ref="E3:E37" si="0">IF(AND(G3&lt;&gt;"",H3&lt;&gt;""),TEXT(G3,"H:MM")&amp;"～"&amp;TEXT(H3,"H:MM"),"")</f>
@@ -1081,818 +1073,818 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>9:00～11:00</v>
       </c>
       <c r="G4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>11:00～13:00</v>
       </c>
       <c r="G5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>15:00～17:00</v>
       </c>
       <c r="G6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>15:00～17:00</v>
       </c>
       <c r="G7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>15:00～17:00</v>
       </c>
       <c r="G8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
       </c>
       <c r="E9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>15:00～17:00</v>
       </c>
       <c r="G9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>15:00～17:00</v>
       </c>
       <c r="G10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>15:00～17:00</v>
       </c>
       <c r="G11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>15:00～17:00</v>
       </c>
       <c r="G12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>15:00～17:00</v>
       </c>
       <c r="G13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>13:00～15:00</v>
       </c>
       <c r="G14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>13:00～15:00</v>
       </c>
       <c r="G15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>13:00～15:00</v>
       </c>
       <c r="G16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>9:00～11:00</v>
       </c>
       <c r="G17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>11:00～13:00</v>
       </c>
       <c r="G18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>9:00～11:00</v>
       </c>
       <c r="G19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>11:00～13:00</v>
       </c>
       <c r="G20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>13:00～15:00</v>
       </c>
       <c r="G21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>13:00～15:00</v>
       </c>
       <c r="G22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H22" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>13:00～15:00</v>
       </c>
       <c r="G23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E24" s="2" t="str">
         <f t="shared" si="0"/>
         <v>13:00～15:00</v>
       </c>
       <c r="G24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H24" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E25" s="2" t="str">
         <f t="shared" si="0"/>
         <v>13:00～15:00</v>
       </c>
       <c r="G25" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H25" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E26" s="2" t="str">
         <f t="shared" si="0"/>
         <v>15:00～17:00</v>
       </c>
       <c r="G26" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E27" s="2" t="str">
         <f t="shared" si="0"/>
         <v>15:00～17:00</v>
       </c>
       <c r="G27" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E28" s="2" t="str">
         <f t="shared" si="0"/>
         <v>15:00～17:00</v>
       </c>
       <c r="G28" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H28" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E29" s="2" t="str">
         <f t="shared" si="0"/>
         <v>9:00～11:00</v>
       </c>
       <c r="G29" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E30" s="2" t="str">
         <f t="shared" si="0"/>
         <v>11:00～13:00</v>
       </c>
       <c r="G30" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E31" s="2" t="str">
         <f t="shared" si="0"/>
         <v>9:00～11:00</v>
       </c>
       <c r="G31" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E32" s="2" t="str">
         <f t="shared" si="0"/>
         <v>11:00～13:00</v>
       </c>
       <c r="G32" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H32" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>15:00～17:00</v>
       </c>
       <c r="G33" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H33" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E34" s="2" t="str">
         <f t="shared" si="0"/>
         <v>15:00～17:00</v>
       </c>
       <c r="G34" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H34" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E35" s="2" t="str">
         <f t="shared" si="0"/>
         <v>15:00～17:00</v>
       </c>
       <c r="G35" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H35" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E36" s="2" t="str">
         <f t="shared" si="0"/>
         <v>15:00～17:00</v>
       </c>
       <c r="G36" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H36" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E37" s="2" t="str">
         <f t="shared" si="0"/>
         <v>15:00～17:00</v>
       </c>
       <c r="G37" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H37" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1925,8 +1917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48EFC0BF-A792-4A28-85DB-F2DDF83B903D}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection sqref="A1:D25"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1938,33 +1930,33 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="36" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="str">
         <f>IF(AND(F2&lt;&gt;"",G2&lt;&gt;""),TEXT(F2,"H:MM")&amp;"～"&amp;TEXT(G2,"H:MM"),"")</f>
@@ -1977,18 +1969,18 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="36" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D3" s="2" t="str">
-        <f t="shared" ref="D3:D21" si="0">IF(AND(F3&lt;&gt;"",G3&lt;&gt;""),TEXT(F3,"H:MM")&amp;"～"&amp;TEXT(G3,"H:MM"),"")</f>
+        <f t="shared" ref="D3:D5" si="0">IF(AND(F3&lt;&gt;"",G3&lt;&gt;""),TEXT(F3,"H:MM")&amp;"～"&amp;TEXT(G3,"H:MM"),"")</f>
         <v>11:00～13:00</v>
       </c>
       <c r="F3" s="4">
@@ -2000,13 +1992,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D4" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2021,13 +2013,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D5" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2042,13 +2034,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D6" s="2" t="str">
         <f>IF(AND(F6&lt;&gt;"",G6&lt;&gt;""),TEXT(F6,"H:MM")&amp;"～"&amp;TEXT(G6,"H:MM"),"")</f>
@@ -2063,13 +2055,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D7" s="2" t="str">
         <f t="shared" ref="D7:D9" si="1">IF(AND(F7&lt;&gt;"",G7&lt;&gt;""),TEXT(F7,"H:MM")&amp;"～"&amp;TEXT(G7,"H:MM"),"")</f>
@@ -2084,13 +2076,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D8" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2105,13 +2097,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D9" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2126,13 +2118,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D10" s="2" t="str">
         <f>IF(AND(F10&lt;&gt;"",G10&lt;&gt;""),TEXT(F10,"H:MM")&amp;"～"&amp;TEXT(G10,"H:MM"),"")</f>
@@ -2147,13 +2139,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D11" s="2" t="str">
         <f t="shared" ref="D11:D13" si="2">IF(AND(F11&lt;&gt;"",G11&lt;&gt;""),TEXT(F11,"H:MM")&amp;"～"&amp;TEXT(G11,"H:MM"),"")</f>
@@ -2168,13 +2160,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D12" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2189,13 +2181,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D13" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2210,13 +2202,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="2" t="str">
         <f>IF(AND(F14&lt;&gt;"",G14&lt;&gt;""),TEXT(F14,"H:MM")&amp;"～"&amp;TEXT(G14,"H:MM"),"")</f>
@@ -2231,13 +2223,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="2" t="str">
         <f t="shared" ref="D15:D17" si="3">IF(AND(F15&lt;&gt;"",G15&lt;&gt;""),TEXT(F15,"H:MM")&amp;"～"&amp;TEXT(G15,"H:MM"),"")</f>
@@ -2252,13 +2244,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="2" t="str">
         <f t="shared" si="3"/>
@@ -2273,13 +2265,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="2" t="str">
         <f t="shared" si="3"/>
@@ -2294,13 +2286,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="2" t="str">
         <f>IF(AND(F18&lt;&gt;"",G18&lt;&gt;""),TEXT(F18,"H:MM")&amp;"～"&amp;TEXT(G18,"H:MM"),"")</f>
@@ -2315,13 +2307,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" s="2" t="str">
         <f t="shared" ref="D19:D21" si="4">IF(AND(F19&lt;&gt;"",G19&lt;&gt;""),TEXT(F19,"H:MM")&amp;"～"&amp;TEXT(G19,"H:MM"),"")</f>
@@ -2336,13 +2328,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="2" t="str">
         <f t="shared" si="4"/>
@@ -2357,13 +2349,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" s="2" t="str">
         <f t="shared" si="4"/>
@@ -2378,13 +2370,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" s="2" t="str">
         <f>IF(AND(F22&lt;&gt;"",G22&lt;&gt;""),TEXT(F22,"H:MM")&amp;"～"&amp;TEXT(G22,"H:MM"),"")</f>
@@ -2399,13 +2391,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" s="2" t="str">
         <f t="shared" ref="D23:D25" si="5">IF(AND(F23&lt;&gt;"",G23&lt;&gt;""),TEXT(F23,"H:MM")&amp;"～"&amp;TEXT(G23,"H:MM"),"")</f>
@@ -2420,13 +2412,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24" s="2" t="str">
         <f t="shared" si="5"/>
@@ -2441,13 +2433,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25" s="2" t="str">
         <f t="shared" si="5"/>
@@ -2485,60 +2477,34 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0936F6D6-8130-47E1-9C0C-F6826C966DCC}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C4"/>
+      <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.19921875" customWidth="1"/>
-    <col min="2" max="2" width="15.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="6">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>18</v>
-      </c>
-      <c r="C2" s="5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2" s="5">
         <v>45795</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="6">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>24</v>
-      </c>
-      <c r="C3" s="5">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" s="5">
         <v>45801</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="6">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>25</v>
-      </c>
-      <c r="C4" s="5">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A4" s="5">
         <v>45802</v>
       </c>
     </row>
@@ -2565,74 +2531,74 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2671,46 +2637,46 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>52003401</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="2" t="e">
         <f>IF(A2&lt;&gt;"",_xlfn.XLOOKUP(A2,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>山下</v>
+        <v>#N/A</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2" t="str">
         <f>IF(AND(H2&lt;&gt;"",I2&lt;&gt;""),TEXT(H2,"H:MM")&amp;"～"&amp;TEXT(I2,"H:MM"),"")</f>
@@ -2727,18 +2693,18 @@
       <c r="A3" s="2">
         <v>52003401</v>
       </c>
-      <c r="B3" s="2" t="str">
+      <c r="B3" s="2" t="e">
         <f>IF(A3&lt;&gt;"",_xlfn.XLOOKUP(A3,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>山下</v>
+        <v>#N/A</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="F3" s="2" t="str">
         <f t="shared" ref="F3:F50" si="0">IF(AND(H3&lt;&gt;"",I3&lt;&gt;""),TEXT(H3,"H:MM")&amp;"～"&amp;TEXT(I3,"H:MM"),"")</f>
@@ -2755,18 +2721,18 @@
       <c r="A4" s="2">
         <v>52003401</v>
       </c>
-      <c r="B4" s="2" t="str">
+      <c r="B4" s="2" t="e">
         <f>IF(A4&lt;&gt;"",_xlfn.XLOOKUP(A4,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>山下</v>
+        <v>#N/A</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2783,18 +2749,18 @@
       <c r="A5" s="2">
         <v>52003401</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="2" t="e">
         <f>IF(A5&lt;&gt;"",_xlfn.XLOOKUP(A5,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>山下</v>
+        <v>#N/A</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2811,18 +2777,18 @@
       <c r="A6" s="2">
         <v>52003401</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="2" t="e">
         <f>IF(A6&lt;&gt;"",_xlfn.XLOOKUP(A6,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>山下</v>
+        <v>#N/A</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2839,18 +2805,18 @@
       <c r="A7" s="2">
         <v>52003401</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="2" t="e">
         <f>IF(A7&lt;&gt;"",_xlfn.XLOOKUP(A7,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>山下</v>
+        <v>#N/A</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2867,18 +2833,18 @@
       <c r="A8" s="2">
         <v>52003401</v>
       </c>
-      <c r="B8" s="2" t="str">
+      <c r="B8" s="2" t="e">
         <f>IF(A8&lt;&gt;"",_xlfn.XLOOKUP(A8,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>山下</v>
+        <v>#N/A</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2895,18 +2861,18 @@
       <c r="A9" s="2">
         <v>52003401</v>
       </c>
-      <c r="B9" s="2" t="str">
+      <c r="B9" s="2" t="e">
         <f>IF(A9&lt;&gt;"",_xlfn.XLOOKUP(A9,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>山下</v>
+        <v>#N/A</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="F9" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2923,18 +2889,18 @@
       <c r="A10" s="2">
         <v>52003401</v>
       </c>
-      <c r="B10" s="2" t="str">
+      <c r="B10" s="2" t="e">
         <f>IF(A10&lt;&gt;"",_xlfn.XLOOKUP(A10,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>山下</v>
+        <v>#N/A</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2951,18 +2917,18 @@
       <c r="A11" s="2">
         <v>52003401</v>
       </c>
-      <c r="B11" s="2" t="str">
+      <c r="B11" s="2" t="e">
         <f>IF(A11&lt;&gt;"",_xlfn.XLOOKUP(A11,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>山下</v>
+        <v>#N/A</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2979,18 +2945,18 @@
       <c r="A12" s="2">
         <v>52003401</v>
       </c>
-      <c r="B12" s="2" t="str">
+      <c r="B12" s="2" t="e">
         <f>IF(A12&lt;&gt;"",_xlfn.XLOOKUP(A12,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>山下</v>
+        <v>#N/A</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3007,18 +2973,18 @@
       <c r="A13" s="2">
         <v>52003401</v>
       </c>
-      <c r="B13" s="2" t="str">
+      <c r="B13" s="2" t="e">
         <f>IF(A13&lt;&gt;"",_xlfn.XLOOKUP(A13,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>山下</v>
+        <v>#N/A</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3035,18 +3001,18 @@
       <c r="A14">
         <v>52003400</v>
       </c>
-      <c r="B14" s="2" t="str">
+      <c r="B14" s="2" t="e">
         <f>IF(A14&lt;&gt;"",_xlfn.XLOOKUP(A14,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>山下クラブ</v>
+        <v>#N/A</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3063,18 +3029,18 @@
       <c r="A15">
         <v>52003400</v>
       </c>
-      <c r="B15" s="2" t="str">
+      <c r="B15" s="2" t="e">
         <f>IF(A15&lt;&gt;"",_xlfn.XLOOKUP(A15,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>山下クラブ</v>
+        <v>#N/A</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="F15" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3091,18 +3057,18 @@
       <c r="A16">
         <v>52003400</v>
       </c>
-      <c r="B16" s="2" t="str">
+      <c r="B16" s="2" t="e">
         <f>IF(A16&lt;&gt;"",_xlfn.XLOOKUP(A16,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>山下クラブ</v>
+        <v>#N/A</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F16" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3119,18 +3085,18 @@
       <c r="A17">
         <v>52003400</v>
       </c>
-      <c r="B17" s="2" t="str">
+      <c r="B17" s="2" t="e">
         <f>IF(A17&lt;&gt;"",_xlfn.XLOOKUP(A17,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>山下クラブ</v>
+        <v>#N/A</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F17" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3147,18 +3113,18 @@
       <c r="A18">
         <v>52003400</v>
       </c>
-      <c r="B18" s="2" t="str">
+      <c r="B18" s="2" t="e">
         <f>IF(A18&lt;&gt;"",_xlfn.XLOOKUP(A18,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>山下クラブ</v>
+        <v>#N/A</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F18" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3175,18 +3141,18 @@
       <c r="A19">
         <v>52003400</v>
       </c>
-      <c r="B19" s="2" t="str">
+      <c r="B19" s="2" t="e">
         <f>IF(A19&lt;&gt;"",_xlfn.XLOOKUP(A19,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>山下クラブ</v>
+        <v>#N/A</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F19" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3203,18 +3169,18 @@
       <c r="A20">
         <v>52003400</v>
       </c>
-      <c r="B20" s="2" t="str">
+      <c r="B20" s="2" t="e">
         <f>IF(A20&lt;&gt;"",_xlfn.XLOOKUP(A20,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>山下クラブ</v>
+        <v>#N/A</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F20" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3231,18 +3197,18 @@
       <c r="A21">
         <v>52003400</v>
       </c>
-      <c r="B21" s="2" t="str">
+      <c r="B21" s="2" t="e">
         <f>IF(A21&lt;&gt;"",_xlfn.XLOOKUP(A21,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>山下クラブ</v>
+        <v>#N/A</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="F21" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3259,18 +3225,18 @@
       <c r="A22">
         <v>52003400</v>
       </c>
-      <c r="B22" s="2" t="str">
+      <c r="B22" s="2" t="e">
         <f>IF(A22&lt;&gt;"",_xlfn.XLOOKUP(A22,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>山下クラブ</v>
+        <v>#N/A</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F22" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3287,18 +3253,18 @@
       <c r="A23">
         <v>52003400</v>
       </c>
-      <c r="B23" s="2" t="str">
+      <c r="B23" s="2" t="e">
         <f>IF(A23&lt;&gt;"",_xlfn.XLOOKUP(A23,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>山下クラブ</v>
+        <v>#N/A</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F23" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3315,18 +3281,18 @@
       <c r="A24">
         <v>52003400</v>
       </c>
-      <c r="B24" s="2" t="str">
+      <c r="B24" s="2" t="e">
         <f>IF(A24&lt;&gt;"",_xlfn.XLOOKUP(A24,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>山下クラブ</v>
+        <v>#N/A</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F24" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3343,18 +3309,18 @@
       <c r="A25">
         <v>52003400</v>
       </c>
-      <c r="B25" s="2" t="str">
+      <c r="B25" s="2" t="e">
         <f>IF(A25&lt;&gt;"",_xlfn.XLOOKUP(A25,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>山下クラブ</v>
+        <v>#N/A</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F25" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3371,18 +3337,18 @@
       <c r="A26">
         <v>51010034</v>
       </c>
-      <c r="B26" s="2" t="e">
+      <c r="B26" s="2" t="str">
         <f>IF(A26&lt;&gt;"",_xlfn.XLOOKUP(A26,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>押田　拓也</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F26" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3399,18 +3365,18 @@
       <c r="A27">
         <v>51010034</v>
       </c>
-      <c r="B27" s="2" t="e">
+      <c r="B27" s="2" t="str">
         <f>IF(A27&lt;&gt;"",_xlfn.XLOOKUP(A27,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>押田　拓也</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F27" s="2" t="str">
         <f t="shared" ref="F27" si="1">IF(AND(H27&lt;&gt;"",I27&lt;&gt;""),TEXT(H27,"H:MM")&amp;"～"&amp;TEXT(I27,"H:MM"),"")</f>
@@ -3427,18 +3393,18 @@
       <c r="A28">
         <v>51010034</v>
       </c>
-      <c r="B28" s="2" t="e">
+      <c r="B28" s="2" t="str">
         <f>IF(A28&lt;&gt;"",_xlfn.XLOOKUP(A28,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>押田　拓也</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F28" s="2" t="str">
         <f t="shared" ref="F28" si="2">IF(AND(H28&lt;&gt;"",I28&lt;&gt;""),TEXT(H28,"H:MM")&amp;"～"&amp;TEXT(I28,"H:MM"),"")</f>
@@ -3455,18 +3421,18 @@
       <c r="A29">
         <v>51010034</v>
       </c>
-      <c r="B29" s="2" t="e">
+      <c r="B29" s="2" t="str">
         <f>IF(A29&lt;&gt;"",_xlfn.XLOOKUP(A29,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>押田　拓也</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F29" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3483,18 +3449,18 @@
       <c r="A30">
         <v>51010034</v>
       </c>
-      <c r="B30" s="2" t="e">
+      <c r="B30" s="2" t="str">
         <f>IF(A30&lt;&gt;"",_xlfn.XLOOKUP(A30,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>押田　拓也</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F30" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3511,18 +3477,18 @@
       <c r="A31">
         <v>51010034</v>
       </c>
-      <c r="B31" s="2" t="e">
+      <c r="B31" s="2" t="str">
         <f>IF(A31&lt;&gt;"",_xlfn.XLOOKUP(A31,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>押田　拓也</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F31" s="2" t="str">
         <f t="shared" ref="F31:F32" si="3">IF(AND(H31&lt;&gt;"",I31&lt;&gt;""),TEXT(H31,"H:MM")&amp;"～"&amp;TEXT(I31,"H:MM"),"")</f>
@@ -3539,18 +3505,18 @@
       <c r="A32">
         <v>51010034</v>
       </c>
-      <c r="B32" s="2" t="e">
+      <c r="B32" s="2" t="str">
         <f>IF(A32&lt;&gt;"",_xlfn.XLOOKUP(A32,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>押田　拓也</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F32" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3567,18 +3533,18 @@
       <c r="A33">
         <v>51010034</v>
       </c>
-      <c r="B33" s="2" t="e">
+      <c r="B33" s="2" t="str">
         <f>IF(A33&lt;&gt;"",_xlfn.XLOOKUP(A33,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>押田　拓也</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F33" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3595,18 +3561,18 @@
       <c r="A34">
         <v>51010034</v>
       </c>
-      <c r="B34" s="2" t="e">
+      <c r="B34" s="2" t="str">
         <f>IF(A34&lt;&gt;"",_xlfn.XLOOKUP(A34,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>押田　拓也</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F34" s="2" t="str">
         <f t="shared" ref="F34:F45" si="4">IF(AND(H34&lt;&gt;"",I34&lt;&gt;""),TEXT(H34,"H:MM")&amp;"～"&amp;TEXT(I34,"H:MM"),"")</f>
@@ -3623,18 +3589,18 @@
       <c r="A35">
         <v>51010034</v>
       </c>
-      <c r="B35" s="2" t="e">
+      <c r="B35" s="2" t="str">
         <f>IF(A35&lt;&gt;"",_xlfn.XLOOKUP(A35,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>押田　拓也</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F35" s="2" t="str">
         <f t="shared" si="4"/>
@@ -3651,18 +3617,18 @@
       <c r="A36">
         <v>51010034</v>
       </c>
-      <c r="B36" s="2" t="e">
+      <c r="B36" s="2" t="str">
         <f>IF(A36&lt;&gt;"",_xlfn.XLOOKUP(A36,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>押田　拓也</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F36" s="2" t="str">
         <f t="shared" si="4"/>
@@ -3679,18 +3645,18 @@
       <c r="A37">
         <v>51010034</v>
       </c>
-      <c r="B37" s="2" t="e">
+      <c r="B37" s="2" t="str">
         <f>IF(A37&lt;&gt;"",_xlfn.XLOOKUP(A37,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>押田　拓也</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F37" s="2" t="str">
         <f t="shared" si="4"/>
@@ -3707,18 +3673,18 @@
       <c r="A38">
         <v>51010035</v>
       </c>
-      <c r="B38" s="2" t="e">
+      <c r="B38" s="2" t="str">
         <f>IF(A38&lt;&gt;"",_xlfn.XLOOKUP(A38,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>テニスクラブ〇</v>
       </c>
       <c r="C38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F38" s="2" t="str">
         <f t="shared" si="4"/>
@@ -3735,18 +3701,18 @@
       <c r="A39">
         <v>51010035</v>
       </c>
-      <c r="B39" s="2" t="e">
+      <c r="B39" s="2" t="str">
         <f>IF(A39&lt;&gt;"",_xlfn.XLOOKUP(A39,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>テニスクラブ〇</v>
       </c>
       <c r="C39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F39" s="2" t="str">
         <f t="shared" si="4"/>
@@ -3763,18 +3729,18 @@
       <c r="A40">
         <v>51010035</v>
       </c>
-      <c r="B40" s="2" t="e">
+      <c r="B40" s="2" t="str">
         <f>IF(A40&lt;&gt;"",_xlfn.XLOOKUP(A40,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>テニスクラブ〇</v>
       </c>
       <c r="C40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F40" s="2" t="str">
         <f t="shared" si="4"/>
@@ -3791,18 +3757,18 @@
       <c r="A41">
         <v>51010035</v>
       </c>
-      <c r="B41" s="2" t="e">
+      <c r="B41" s="2" t="str">
         <f>IF(A41&lt;&gt;"",_xlfn.XLOOKUP(A41,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>テニスクラブ〇</v>
       </c>
       <c r="C41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F41" s="2" t="str">
         <f t="shared" si="4"/>
@@ -3819,18 +3785,18 @@
       <c r="A42">
         <v>51010035</v>
       </c>
-      <c r="B42" s="2" t="e">
+      <c r="B42" s="2" t="str">
         <f>IF(A42&lt;&gt;"",_xlfn.XLOOKUP(A42,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>テニスクラブ〇</v>
       </c>
       <c r="C42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F42" s="2" t="str">
         <f t="shared" si="4"/>
@@ -3847,18 +3813,18 @@
       <c r="A43">
         <v>51010035</v>
       </c>
-      <c r="B43" s="2" t="e">
+      <c r="B43" s="2" t="str">
         <f>IF(A43&lt;&gt;"",_xlfn.XLOOKUP(A43,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>テニスクラブ〇</v>
       </c>
       <c r="C43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F43" s="2" t="str">
         <f t="shared" si="4"/>
@@ -3875,18 +3841,18 @@
       <c r="A44">
         <v>51010035</v>
       </c>
-      <c r="B44" s="2" t="e">
+      <c r="B44" s="2" t="str">
         <f>IF(A44&lt;&gt;"",_xlfn.XLOOKUP(A44,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>テニスクラブ〇</v>
       </c>
       <c r="C44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F44" s="2" t="str">
         <f t="shared" si="4"/>
@@ -3903,18 +3869,18 @@
       <c r="A45">
         <v>51010035</v>
       </c>
-      <c r="B45" s="2" t="e">
+      <c r="B45" s="2" t="str">
         <f>IF(A45&lt;&gt;"",_xlfn.XLOOKUP(A45,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>テニスクラブ〇</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F45" s="2" t="str">
         <f t="shared" si="4"/>
@@ -3931,18 +3897,18 @@
       <c r="A46">
         <v>51010035</v>
       </c>
-      <c r="B46" s="2" t="e">
+      <c r="B46" s="2" t="str">
         <f>IF(A46&lt;&gt;"",_xlfn.XLOOKUP(A46,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>テニスクラブ〇</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F46" s="2" t="str">
         <f t="shared" ref="F46:F49" si="5">IF(AND(H46&lt;&gt;"",I46&lt;&gt;""),TEXT(H46,"H:MM")&amp;"～"&amp;TEXT(I46,"H:MM"),"")</f>
@@ -3959,18 +3925,18 @@
       <c r="A47">
         <v>51010035</v>
       </c>
-      <c r="B47" s="2" t="e">
+      <c r="B47" s="2" t="str">
         <f>IF(A47&lt;&gt;"",_xlfn.XLOOKUP(A47,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>テニスクラブ〇</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F47" s="2" t="str">
         <f t="shared" si="5"/>
@@ -3987,18 +3953,18 @@
       <c r="A48">
         <v>51010035</v>
       </c>
-      <c r="B48" s="2" t="e">
+      <c r="B48" s="2" t="str">
         <f>IF(A48&lt;&gt;"",_xlfn.XLOOKUP(A48,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>テニスクラブ〇</v>
       </c>
       <c r="C48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F48" s="2" t="str">
         <f t="shared" si="5"/>
@@ -4015,18 +3981,18 @@
       <c r="A49">
         <v>51010035</v>
       </c>
-      <c r="B49" s="2" t="e">
+      <c r="B49" s="2" t="str">
         <f>IF(A49&lt;&gt;"",_xlfn.XLOOKUP(A49,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>テニスクラブ〇</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F49" s="2" t="str">
         <f t="shared" si="5"/>
@@ -4043,18 +4009,18 @@
       <c r="A50">
         <v>50020623</v>
       </c>
-      <c r="B50" s="2" t="e">
+      <c r="B50" s="2" t="str">
         <f>IF(A50&lt;&gt;"",_xlfn.XLOOKUP(A50,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>川渕　菜穂</v>
       </c>
       <c r="C50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D50" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F50" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4071,18 +4037,18 @@
       <c r="A51">
         <v>50020623</v>
       </c>
-      <c r="B51" s="2" t="e">
+      <c r="B51" s="2" t="str">
         <f>IF(A51&lt;&gt;"",_xlfn.XLOOKUP(A51,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>川渕　菜穂</v>
       </c>
       <c r="C51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D51" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F51" s="2" t="str">
         <f t="shared" ref="F51:F54" si="6">IF(AND(H51&lt;&gt;"",I51&lt;&gt;""),TEXT(H51,"H:MM")&amp;"～"&amp;TEXT(I51,"H:MM"),"")</f>
@@ -4099,18 +4065,18 @@
       <c r="A52">
         <v>50020623</v>
       </c>
-      <c r="B52" s="2" t="e">
+      <c r="B52" s="2" t="str">
         <f>IF(A52&lt;&gt;"",_xlfn.XLOOKUP(A52,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>川渕　菜穂</v>
       </c>
       <c r="C52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F52" s="2" t="str">
         <f t="shared" si="6"/>
@@ -4127,18 +4093,18 @@
       <c r="A53">
         <v>50020623</v>
       </c>
-      <c r="B53" s="2" t="e">
+      <c r="B53" s="2" t="str">
         <f>IF(A53&lt;&gt;"",_xlfn.XLOOKUP(A53,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>川渕　菜穂</v>
       </c>
       <c r="C53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F53" s="2" t="str">
         <f t="shared" si="6"/>
@@ -4155,18 +4121,18 @@
       <c r="A54">
         <v>50020623</v>
       </c>
-      <c r="B54" s="2" t="e">
+      <c r="B54" s="2" t="str">
         <f>IF(A54&lt;&gt;"",_xlfn.XLOOKUP(A54,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>川渕　菜穂</v>
       </c>
       <c r="C54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E54" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F54" s="2" t="str">
         <f t="shared" si="6"/>
@@ -4183,18 +4149,18 @@
       <c r="A55">
         <v>50020623</v>
       </c>
-      <c r="B55" s="2" t="e">
+      <c r="B55" s="2" t="str">
         <f>IF(A55&lt;&gt;"",_xlfn.XLOOKUP(A55,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>川渕　菜穂</v>
       </c>
       <c r="C55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F55" s="2" t="str">
         <f t="shared" ref="F55:F56" si="7">IF(AND(H55&lt;&gt;"",I55&lt;&gt;""),TEXT(H55,"H:MM")&amp;"～"&amp;TEXT(I55,"H:MM"),"")</f>
@@ -4211,18 +4177,18 @@
       <c r="A56">
         <v>50020623</v>
       </c>
-      <c r="B56" s="2" t="e">
+      <c r="B56" s="2" t="str">
         <f>IF(A56&lt;&gt;"",_xlfn.XLOOKUP(A56,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>川渕　菜穂</v>
       </c>
       <c r="C56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F56" s="2" t="str">
         <f t="shared" si="7"/>
@@ -4239,18 +4205,18 @@
       <c r="A57">
         <v>50020623</v>
       </c>
-      <c r="B57" s="2" t="e">
+      <c r="B57" s="2" t="str">
         <f>IF(A57&lt;&gt;"",_xlfn.XLOOKUP(A57,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>川渕　菜穂</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D57" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F57" s="2" t="str">
         <f t="shared" ref="F57" si="8">IF(AND(H57&lt;&gt;"",I57&lt;&gt;""),TEXT(H57,"H:MM")&amp;"～"&amp;TEXT(I57,"H:MM"),"")</f>
@@ -4267,18 +4233,18 @@
       <c r="A58">
         <v>50020623</v>
       </c>
-      <c r="B58" s="2" t="e">
+      <c r="B58" s="2" t="str">
         <f>IF(A58&lt;&gt;"",_xlfn.XLOOKUP(A58,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>川渕　菜穂</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F58" s="2" t="str">
         <f t="shared" ref="F58:F69" si="9">IF(AND(H58&lt;&gt;"",I58&lt;&gt;""),TEXT(H58,"H:MM")&amp;"～"&amp;TEXT(I58,"H:MM"),"")</f>
@@ -4295,18 +4261,18 @@
       <c r="A59">
         <v>50020623</v>
       </c>
-      <c r="B59" s="2" t="e">
+      <c r="B59" s="2" t="str">
         <f>IF(A59&lt;&gt;"",_xlfn.XLOOKUP(A59,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>川渕　菜穂</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D59" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F59" s="2" t="str">
         <f t="shared" si="9"/>
@@ -4323,18 +4289,18 @@
       <c r="A60">
         <v>50020623</v>
       </c>
-      <c r="B60" s="2" t="e">
+      <c r="B60" s="2" t="str">
         <f>IF(A60&lt;&gt;"",_xlfn.XLOOKUP(A60,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>川渕　菜穂</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D60" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F60" s="2" t="str">
         <f t="shared" si="9"/>
@@ -4351,18 +4317,18 @@
       <c r="A61">
         <v>50020623</v>
       </c>
-      <c r="B61" s="2" t="e">
+      <c r="B61" s="2" t="str">
         <f>IF(A61&lt;&gt;"",_xlfn.XLOOKUP(A61,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>川渕　菜穂</v>
       </c>
       <c r="C61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F61" s="2" t="str">
         <f t="shared" si="9"/>
@@ -4379,18 +4345,18 @@
       <c r="A62">
         <v>52002338</v>
       </c>
-      <c r="B62" s="2" t="e">
+      <c r="B62" s="2" t="str">
         <f>IF(A62&lt;&gt;"",_xlfn.XLOOKUP(A62,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>近藤　亜希</v>
       </c>
       <c r="C62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D62" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E62" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F62" s="2" t="str">
         <f t="shared" si="9"/>
@@ -4407,18 +4373,18 @@
       <c r="A63">
         <v>52002338</v>
       </c>
-      <c r="B63" s="2" t="e">
+      <c r="B63" s="2" t="str">
         <f>IF(A63&lt;&gt;"",_xlfn.XLOOKUP(A63,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>近藤　亜希</v>
       </c>
       <c r="C63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D63" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E63" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F63" s="2" t="str">
         <f t="shared" si="9"/>
@@ -4435,18 +4401,18 @@
       <c r="A64">
         <v>52002338</v>
       </c>
-      <c r="B64" s="2" t="e">
+      <c r="B64" s="2" t="str">
         <f>IF(A64&lt;&gt;"",_xlfn.XLOOKUP(A64,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>近藤　亜希</v>
       </c>
       <c r="C64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D64" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F64" s="2" t="str">
         <f t="shared" si="9"/>
@@ -4463,18 +4429,18 @@
       <c r="A65">
         <v>52002338</v>
       </c>
-      <c r="B65" s="2" t="e">
+      <c r="B65" s="2" t="str">
         <f>IF(A65&lt;&gt;"",_xlfn.XLOOKUP(A65,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>近藤　亜希</v>
       </c>
       <c r="C65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D65" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E65" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F65" s="2" t="str">
         <f t="shared" si="9"/>
@@ -4491,18 +4457,18 @@
       <c r="A66">
         <v>52002338</v>
       </c>
-      <c r="B66" s="2" t="e">
+      <c r="B66" s="2" t="str">
         <f>IF(A66&lt;&gt;"",_xlfn.XLOOKUP(A66,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>近藤　亜希</v>
       </c>
       <c r="C66" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E66" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F66" s="2" t="str">
         <f t="shared" si="9"/>
@@ -4519,18 +4485,18 @@
       <c r="A67">
         <v>52002338</v>
       </c>
-      <c r="B67" s="2" t="e">
+      <c r="B67" s="2" t="str">
         <f>IF(A67&lt;&gt;"",_xlfn.XLOOKUP(A67,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>近藤　亜希</v>
       </c>
       <c r="C67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D67" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E67" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F67" s="2" t="str">
         <f t="shared" si="9"/>
@@ -4547,18 +4513,18 @@
       <c r="A68">
         <v>52002338</v>
       </c>
-      <c r="B68" s="2" t="e">
+      <c r="B68" s="2" t="str">
         <f>IF(A68&lt;&gt;"",_xlfn.XLOOKUP(A68,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>近藤　亜希</v>
       </c>
       <c r="C68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D68" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E68" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F68" s="2" t="str">
         <f t="shared" si="9"/>
@@ -4575,18 +4541,18 @@
       <c r="A69">
         <v>52002338</v>
       </c>
-      <c r="B69" s="2" t="e">
+      <c r="B69" s="2" t="str">
         <f>IF(A69&lt;&gt;"",_xlfn.XLOOKUP(A69,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>近藤　亜希</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D69" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F69" s="2" t="str">
         <f t="shared" si="9"/>
@@ -4603,18 +4569,18 @@
       <c r="A70">
         <v>52002338</v>
       </c>
-      <c r="B70" s="2" t="e">
+      <c r="B70" s="2" t="str">
         <f>IF(A70&lt;&gt;"",_xlfn.XLOOKUP(A70,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>近藤　亜希</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D70" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F70" s="2" t="str">
         <f t="shared" ref="F70:F73" si="10">IF(AND(H70&lt;&gt;"",I70&lt;&gt;""),TEXT(H70,"H:MM")&amp;"～"&amp;TEXT(I70,"H:MM"),"")</f>
@@ -4631,18 +4597,18 @@
       <c r="A71">
         <v>52002338</v>
       </c>
-      <c r="B71" s="2" t="e">
+      <c r="B71" s="2" t="str">
         <f>IF(A71&lt;&gt;"",_xlfn.XLOOKUP(A71,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>近藤　亜希</v>
       </c>
       <c r="C71" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E71" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F71" s="2" t="str">
         <f t="shared" si="10"/>
@@ -4659,18 +4625,18 @@
       <c r="A72">
         <v>52002338</v>
       </c>
-      <c r="B72" s="2" t="e">
+      <c r="B72" s="2" t="str">
         <f>IF(A72&lt;&gt;"",_xlfn.XLOOKUP(A72,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>近藤　亜希</v>
       </c>
       <c r="C72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D72" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F72" s="2" t="str">
         <f t="shared" si="10"/>
@@ -4687,18 +4653,18 @@
       <c r="A73">
         <v>52002338</v>
       </c>
-      <c r="B73" s="2" t="e">
+      <c r="B73" s="2" t="str">
         <f>IF(A73&lt;&gt;"",_xlfn.XLOOKUP(A73,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>近藤　亜希</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D73" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F73" s="2" t="str">
         <f t="shared" si="10"/>
@@ -24856,66 +24822,50 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D4"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="10">
-        <v>51010034</v>
-      </c>
-      <c r="B1" s="10">
+      <c r="A1" s="2">
+        <v>52003401</v>
+      </c>
+      <c r="B1" s="2">
         <v>1234</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="11">
-        <v>51010035</v>
-      </c>
-      <c r="B2" s="11">
+      <c r="A2" s="2">
+        <v>52003400</v>
+      </c>
+      <c r="B2" s="2">
         <v>1234</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="10">
-        <v>50020623</v>
-      </c>
-      <c r="B3" s="10">
-        <v>1234</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="12">
-        <v>52002338</v>
-      </c>
-      <c r="B4" s="12">
-        <v>1234</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>39</v>
-      </c>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/tennis_book_table.xlsx
+++ b/tennis_book_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pj\selenium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5292E48C-4102-46EE-B957-DEC4B65E9F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14720D60-FB82-487A-B992-9B0F4C1EC389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="860" xr2:uid="{009F9442-13E0-422C-92B8-D127C516E97B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="860" activeTab="3" xr2:uid="{009F9442-13E0-422C-92B8-D127C516E97B}"/>
   </bookViews>
   <sheets>
     <sheet name="UserCredentials" sheetId="3" r:id="rId1"/>
@@ -891,7 +891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F9F9955-52FE-42F9-8C6D-0DBE8AB9F147}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
@@ -2479,8 +2479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0936F6D6-8130-47E1-9C0C-F6826C966DCC}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2494,19 +2494,13 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A2" s="5">
-        <v>45795</v>
-      </c>
+      <c r="A2" s="5"/>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A3" s="5">
-        <v>45801</v>
-      </c>
+      <c r="A3" s="5"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A4" s="5">
-        <v>45802</v>
-      </c>
+      <c r="A4" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/tennis_book_table.xlsx
+++ b/tennis_book_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pj\selenium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14720D60-FB82-487A-B992-9B0F4C1EC389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CC5359-2FD3-4CE8-A123-1C7C053E81FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="860" activeTab="3" xr2:uid="{009F9442-13E0-422C-92B8-D127C516E97B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="860" xr2:uid="{009F9442-13E0-422C-92B8-D127C516E97B}"/>
   </bookViews>
   <sheets>
     <sheet name="UserCredentials" sheetId="3" r:id="rId1"/>
@@ -47,8 +47,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={6538FF7D-FB42-4217-BC61-10B540467B4D}</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{6538FF7D-FB42-4217-BC61-10B540467B4D}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    この列に、A2から、YYYY年MM月DD日で記載していく</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="63">
   <si>
     <t>山下</t>
     <rPh sb="0" eb="2">
@@ -217,40 +235,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>押田　拓也</t>
-    <rPh sb="0" eb="2">
-      <t>オシダ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>タクヤ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テニスクラブ〇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>川渕　菜穂</t>
-    <rPh sb="0" eb="2">
-      <t>カワブチ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ナホ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>近藤　亜希</t>
-    <rPh sb="0" eb="2">
-      <t>コンドウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>アキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>A3</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -336,6 +320,33 @@
     <t>Name</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>山下</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>山下クラブ</t>
+  </si>
+  <si>
+    <t>押田　拓也</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>テニスクラブ〇</t>
+  </si>
+  <si>
+    <t>川渕　菜穂</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>近藤　亜希</t>
+  </si>
 </sst>
 </file>
 
@@ -345,7 +356,7 @@
     <numFmt numFmtId="176" formatCode="hh:mm"/>
     <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,8 +381,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -382,6 +401,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
   </fills>
@@ -408,7 +433,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -438,6 +463,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -529,9 +572,15 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="yohei yamashita" id="{6B659DEB-F479-4CD2-94E9-DCAB8BA0FF97}" userId="yohei yamashita" providerId="None"/>
+</personList>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{82FA74CF-B7E1-4A03-9770-9F2465883F97}" name="User" displayName="User" ref="A1:D5" totalsRowShown="0">
-  <autoFilter ref="A1:D5" xr:uid="{82FA74CF-B7E1-4A03-9770-9F2465883F97}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{82FA74CF-B7E1-4A03-9770-9F2465883F97}" name="User" displayName="User" ref="A1:D7" totalsRowShown="0">
+  <autoFilter ref="A1:D7" xr:uid="{82FA74CF-B7E1-4A03-9770-9F2465883F97}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{0E14C2CC-EEBD-4C0A-AFAA-21A763BF3936}" name="ID" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{2F5EA79F-85D9-43CC-9023-EF5498EF74B6}" name="Password" dataDxfId="5"/>
@@ -887,12 +936,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2025-03-06T14:13:40.08" personId="{6B659DEB-F479-4CD2-94E9-DCAB8BA0FF97}" id="{6538FF7D-FB42-4217-BC61-10B540467B4D}">
+    <text>この列に、A2から、YYYY年MM月DD日で記載していく</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F9F9955-52FE-42F9-8C6D-0DBE8AB9F147}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -911,66 +968,94 @@
         <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="8">
-        <v>51010034</v>
-      </c>
-      <c r="B2" s="8">
+      <c r="A2" s="2">
+        <v>52003401</v>
+      </c>
+      <c r="B2" s="2">
         <v>1234</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>39</v>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
-        <v>51010035</v>
+        <v>52003400</v>
       </c>
       <c r="B3" s="2">
         <v>1234</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="8">
+      <c r="A4" s="10">
+        <v>51010034</v>
+      </c>
+      <c r="B4" s="10">
+        <v>1234</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="12">
+        <v>51010035</v>
+      </c>
+      <c r="B5" s="12">
+        <v>1234</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="10">
         <v>50020623</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B6" s="10">
         <v>1234</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="9">
+      <c r="C6" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="14">
         <v>52002338</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B7" s="14">
         <v>1234</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>38</v>
+      <c r="C7" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -986,7 +1071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B9B8BD-4052-403E-B293-911624F1E6FE}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1002,7 +1087,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -1017,15 +1102,15 @@
         <v>19</v>
       </c>
       <c r="G1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -1049,7 +1134,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -1073,7 +1158,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -1089,15 +1174,15 @@
         <v>9:00～11:00</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -1113,15 +1198,15 @@
         <v>11:00～13:00</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -1137,15 +1222,15 @@
         <v>15:00～17:00</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -1161,15 +1246,15 @@
         <v>15:00～17:00</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -1185,15 +1270,15 @@
         <v>15:00～17:00</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1209,15 +1294,15 @@
         <v>15:00～17:00</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1233,15 +1318,15 @@
         <v>15:00～17:00</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1257,15 +1342,15 @@
         <v>15:00～17:00</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1281,15 +1366,15 @@
         <v>15:00～17:00</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1305,15 +1390,15 @@
         <v>15:00～17:00</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -1329,15 +1414,15 @@
         <v>13:00～15:00</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -1353,15 +1438,15 @@
         <v>13:00～15:00</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -1377,15 +1462,15 @@
         <v>13:00～15:00</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -1401,15 +1486,15 @@
         <v>9:00～11:00</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -1425,15 +1510,15 @@
         <v>11:00～13:00</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -1449,15 +1534,15 @@
         <v>9:00～11:00</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -1473,15 +1558,15 @@
         <v>11:00～13:00</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
         <v>13</v>
@@ -1497,15 +1582,15 @@
         <v>13:00～15:00</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
         <v>13</v>
@@ -1521,15 +1606,15 @@
         <v>13:00～15:00</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
@@ -1545,15 +1630,15 @@
         <v>13:00～15:00</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
         <v>13</v>
@@ -1569,15 +1654,15 @@
         <v>13:00～15:00</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
         <v>13</v>
@@ -1593,15 +1678,15 @@
         <v>13:00～15:00</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
@@ -1617,15 +1702,15 @@
         <v>15:00～17:00</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
@@ -1641,15 +1726,15 @@
         <v>15:00～17:00</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
@@ -1665,15 +1750,15 @@
         <v>15:00～17:00</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
@@ -1689,15 +1774,15 @@
         <v>9:00～11:00</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
@@ -1713,15 +1798,15 @@
         <v>11:00～13:00</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
@@ -1737,15 +1822,15 @@
         <v>9:00～11:00</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
@@ -1761,15 +1846,15 @@
         <v>11:00～13:00</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
         <v>13</v>
@@ -1785,15 +1870,15 @@
         <v>15:00～17:00</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
         <v>13</v>
@@ -1809,15 +1894,15 @@
         <v>15:00～17:00</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s">
         <v>13</v>
@@ -1833,15 +1918,15 @@
         <v>15:00～17:00</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B36" t="s">
         <v>13</v>
@@ -1857,15 +1942,15 @@
         <v>15:00～17:00</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s">
         <v>13</v>
@@ -1881,10 +1966,10 @@
         <v>15:00～17:00</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1930,7 +2015,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -1939,10 +2024,10 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G1" t="s">
         <v>33</v>
@@ -1950,13 +2035,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2" t="str">
         <f>IF(AND(F2&lt;&gt;"",G2&lt;&gt;""),TEXT(F2,"H:MM")&amp;"～"&amp;TEXT(G2,"H:MM"),"")</f>
@@ -1971,13 +2056,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="str">
         <f t="shared" ref="D3:D5" si="0">IF(AND(F3&lt;&gt;"",G3&lt;&gt;""),TEXT(F3,"H:MM")&amp;"～"&amp;TEXT(G3,"H:MM"),"")</f>
@@ -1992,13 +2077,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2013,13 +2098,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D5" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2034,13 +2119,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D6" s="2" t="str">
         <f>IF(AND(F6&lt;&gt;"",G6&lt;&gt;""),TEXT(F6,"H:MM")&amp;"～"&amp;TEXT(G6,"H:MM"),"")</f>
@@ -2055,13 +2140,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D7" s="2" t="str">
         <f t="shared" ref="D7:D9" si="1">IF(AND(F7&lt;&gt;"",G7&lt;&gt;""),TEXT(F7,"H:MM")&amp;"～"&amp;TEXT(G7,"H:MM"),"")</f>
@@ -2076,13 +2161,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D8" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2097,13 +2182,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D9" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2118,13 +2203,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D10" s="2" t="str">
         <f>IF(AND(F10&lt;&gt;"",G10&lt;&gt;""),TEXT(F10,"H:MM")&amp;"～"&amp;TEXT(G10,"H:MM"),"")</f>
@@ -2139,13 +2224,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D11" s="2" t="str">
         <f t="shared" ref="D11:D13" si="2">IF(AND(F11&lt;&gt;"",G11&lt;&gt;""),TEXT(F11,"H:MM")&amp;"～"&amp;TEXT(G11,"H:MM"),"")</f>
@@ -2160,13 +2245,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D12" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2181,13 +2266,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D13" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2202,7 +2287,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -2223,7 +2308,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -2244,7 +2329,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -2265,7 +2350,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -2286,7 +2371,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -2307,7 +2392,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
@@ -2328,7 +2413,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
         <v>13</v>
@@ -2349,7 +2434,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
         <v>13</v>
@@ -2370,7 +2455,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
         <v>13</v>
@@ -2391,7 +2476,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
@@ -2412,7 +2497,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
         <v>13</v>
@@ -2433,7 +2518,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
         <v>13</v>
@@ -2476,11 +2561,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0936F6D6-8130-47E1-9C0C-F6826C966DCC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0936F6D6-8130-47E1-9C0C-F6826C966DCC}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2490,7 +2575,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
@@ -2505,6 +2590,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2577,7 +2663,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -2613,8 +2699,8 @@
   </sheetPr>
   <dimension ref="A1:I2085"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2659,9 +2745,9 @@
       <c r="A2" s="2">
         <v>52003401</v>
       </c>
-      <c r="B2" s="2" t="e">
+      <c r="B2" s="2" t="str">
         <f>IF(A2&lt;&gt;"",_xlfn.XLOOKUP(A2,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>山下</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
@@ -2687,9 +2773,9 @@
       <c r="A3" s="2">
         <v>52003401</v>
       </c>
-      <c r="B3" s="2" t="e">
+      <c r="B3" s="2" t="str">
         <f>IF(A3&lt;&gt;"",_xlfn.XLOOKUP(A3,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>山下</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
@@ -2715,9 +2801,9 @@
       <c r="A4" s="2">
         <v>52003401</v>
       </c>
-      <c r="B4" s="2" t="e">
+      <c r="B4" s="2" t="str">
         <f>IF(A4&lt;&gt;"",_xlfn.XLOOKUP(A4,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>山下</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
@@ -2743,9 +2829,9 @@
       <c r="A5" s="2">
         <v>52003401</v>
       </c>
-      <c r="B5" s="2" t="e">
+      <c r="B5" s="2" t="str">
         <f>IF(A5&lt;&gt;"",_xlfn.XLOOKUP(A5,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>山下</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
@@ -2771,9 +2857,9 @@
       <c r="A6" s="2">
         <v>52003401</v>
       </c>
-      <c r="B6" s="2" t="e">
+      <c r="B6" s="2" t="str">
         <f>IF(A6&lt;&gt;"",_xlfn.XLOOKUP(A6,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>山下</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
@@ -2799,9 +2885,9 @@
       <c r="A7" s="2">
         <v>52003401</v>
       </c>
-      <c r="B7" s="2" t="e">
+      <c r="B7" s="2" t="str">
         <f>IF(A7&lt;&gt;"",_xlfn.XLOOKUP(A7,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>山下</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
@@ -2827,9 +2913,9 @@
       <c r="A8" s="2">
         <v>52003401</v>
       </c>
-      <c r="B8" s="2" t="e">
+      <c r="B8" s="2" t="str">
         <f>IF(A8&lt;&gt;"",_xlfn.XLOOKUP(A8,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>山下</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>6</v>
@@ -2855,9 +2941,9 @@
       <c r="A9" s="2">
         <v>52003401</v>
       </c>
-      <c r="B9" s="2" t="e">
+      <c r="B9" s="2" t="str">
         <f>IF(A9&lt;&gt;"",_xlfn.XLOOKUP(A9,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>山下</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>13</v>
@@ -2883,9 +2969,9 @@
       <c r="A10" s="2">
         <v>52003401</v>
       </c>
-      <c r="B10" s="2" t="e">
+      <c r="B10" s="2" t="str">
         <f>IF(A10&lt;&gt;"",_xlfn.XLOOKUP(A10,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>山下</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>13</v>
@@ -2911,9 +2997,9 @@
       <c r="A11" s="2">
         <v>52003401</v>
       </c>
-      <c r="B11" s="2" t="e">
+      <c r="B11" s="2" t="str">
         <f>IF(A11&lt;&gt;"",_xlfn.XLOOKUP(A11,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>山下</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>13</v>
@@ -2939,9 +3025,9 @@
       <c r="A12" s="2">
         <v>52003401</v>
       </c>
-      <c r="B12" s="2" t="e">
+      <c r="B12" s="2" t="str">
         <f>IF(A12&lt;&gt;"",_xlfn.XLOOKUP(A12,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>山下</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>13</v>
@@ -2967,9 +3053,9 @@
       <c r="A13" s="2">
         <v>52003401</v>
       </c>
-      <c r="B13" s="2" t="e">
+      <c r="B13" s="2" t="str">
         <f>IF(A13&lt;&gt;"",_xlfn.XLOOKUP(A13,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>山下</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>13</v>
@@ -2995,9 +3081,9 @@
       <c r="A14">
         <v>52003400</v>
       </c>
-      <c r="B14" s="2" t="e">
+      <c r="B14" s="2" t="str">
         <f>IF(A14&lt;&gt;"",_xlfn.XLOOKUP(A14,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>山下クラブ</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>6</v>
@@ -3023,9 +3109,9 @@
       <c r="A15">
         <v>52003400</v>
       </c>
-      <c r="B15" s="2" t="e">
+      <c r="B15" s="2" t="str">
         <f>IF(A15&lt;&gt;"",_xlfn.XLOOKUP(A15,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>山下クラブ</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>6</v>
@@ -3051,9 +3137,9 @@
       <c r="A16">
         <v>52003400</v>
       </c>
-      <c r="B16" s="2" t="e">
+      <c r="B16" s="2" t="str">
         <f>IF(A16&lt;&gt;"",_xlfn.XLOOKUP(A16,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>山下クラブ</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>6</v>
@@ -3079,9 +3165,9 @@
       <c r="A17">
         <v>52003400</v>
       </c>
-      <c r="B17" s="2" t="e">
+      <c r="B17" s="2" t="str">
         <f>IF(A17&lt;&gt;"",_xlfn.XLOOKUP(A17,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>山下クラブ</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>6</v>
@@ -3107,9 +3193,9 @@
       <c r="A18">
         <v>52003400</v>
       </c>
-      <c r="B18" s="2" t="e">
+      <c r="B18" s="2" t="str">
         <f>IF(A18&lt;&gt;"",_xlfn.XLOOKUP(A18,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>山下クラブ</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>6</v>
@@ -3135,9 +3221,9 @@
       <c r="A19">
         <v>52003400</v>
       </c>
-      <c r="B19" s="2" t="e">
+      <c r="B19" s="2" t="str">
         <f>IF(A19&lt;&gt;"",_xlfn.XLOOKUP(A19,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>山下クラブ</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>6</v>
@@ -3163,9 +3249,9 @@
       <c r="A20">
         <v>52003400</v>
       </c>
-      <c r="B20" s="2" t="e">
+      <c r="B20" s="2" t="str">
         <f>IF(A20&lt;&gt;"",_xlfn.XLOOKUP(A20,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>山下クラブ</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>6</v>
@@ -3191,9 +3277,9 @@
       <c r="A21">
         <v>52003400</v>
       </c>
-      <c r="B21" s="2" t="e">
+      <c r="B21" s="2" t="str">
         <f>IF(A21&lt;&gt;"",_xlfn.XLOOKUP(A21,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>山下クラブ</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>13</v>
@@ -3219,9 +3305,9 @@
       <c r="A22">
         <v>52003400</v>
       </c>
-      <c r="B22" s="2" t="e">
+      <c r="B22" s="2" t="str">
         <f>IF(A22&lt;&gt;"",_xlfn.XLOOKUP(A22,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>山下クラブ</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>13</v>
@@ -3247,9 +3333,9 @@
       <c r="A23">
         <v>52003400</v>
       </c>
-      <c r="B23" s="2" t="e">
+      <c r="B23" s="2" t="str">
         <f>IF(A23&lt;&gt;"",_xlfn.XLOOKUP(A23,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>山下クラブ</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>13</v>
@@ -3275,9 +3361,9 @@
       <c r="A24">
         <v>52003400</v>
       </c>
-      <c r="B24" s="2" t="e">
+      <c r="B24" s="2" t="str">
         <f>IF(A24&lt;&gt;"",_xlfn.XLOOKUP(A24,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>山下クラブ</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>13</v>
@@ -3303,9 +3389,9 @@
       <c r="A25">
         <v>52003400</v>
       </c>
-      <c r="B25" s="2" t="e">
+      <c r="B25" s="2" t="str">
         <f>IF(A25&lt;&gt;"",_xlfn.XLOOKUP(A25,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>#N/A</v>
+        <v>山下クラブ</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>13</v>
@@ -24832,7 +24918,7 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -24846,7 +24932,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">

--- a/tennis_book_table.xlsx
+++ b/tennis_book_table.xlsx
@@ -1,30 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pj\selenium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CC5359-2FD3-4CE8-A123-1C7C053E81FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5FB94D-2A1C-4D97-A1A3-850AA63C4E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="860" xr2:uid="{009F9442-13E0-422C-92B8-D127C516E97B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="860" activeTab="1" xr2:uid="{009F9442-13E0-422C-92B8-D127C516E97B}"/>
   </bookViews>
   <sheets>
-    <sheet name="UserCredentials" sheetId="3" r:id="rId1"/>
-    <sheet name="TimePattern" sheetId="5" r:id="rId2"/>
-    <sheet name="SpecialBook" sheetId="6" r:id="rId3"/>
-    <sheet name="SpecialDate" sheetId="7" r:id="rId4"/>
-    <sheet name="List" sheetId="4" r:id="rId5"/>
-    <sheet name="BookingSettings" sheetId="2" r:id="rId6"/>
-    <sheet name="bk" sheetId="8" r:id="rId7"/>
+    <sheet name="UserCredentials (2)" sheetId="9" r:id="rId1"/>
+    <sheet name="UserCredentials" sheetId="3" r:id="rId2"/>
+    <sheet name="TimePattern" sheetId="5" r:id="rId3"/>
+    <sheet name="SpecialBook" sheetId="6" r:id="rId4"/>
+    <sheet name="SpecialDate" sheetId="7" r:id="rId5"/>
+    <sheet name="List" sheetId="4" r:id="rId6"/>
+    <sheet name="BookingSettings" sheetId="2" r:id="rId7"/>
+    <sheet name="bk" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
+    <definedName name="Court" localSheetId="0">テーブル4[Court]</definedName>
     <definedName name="Court">テーブル4[Court]</definedName>
+    <definedName name="FacilityName" localSheetId="0">テーブル2[FacilityName]</definedName>
     <definedName name="FacilityName">テーブル2[FacilityName]</definedName>
+    <definedName name="UserID" localSheetId="0">User6[ID]</definedName>
     <definedName name="UserID">User[ID]</definedName>
+    <definedName name="Weekday" localSheetId="0">テーブル3[Weekday]</definedName>
     <definedName name="Weekday">テーブル3[Weekday]</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -55,10 +60,20 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{6538FF7D-FB42-4217-BC61-10B540467B4D}">
       <text>
-        <t>[スレッド化されたコメント]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="游ゴシック"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[スレッド化されたコメント]
 使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
 コメント:
     この列に、A2から、YYYY年MM月DD日で記載していく</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -66,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="64">
   <si>
     <t>山下</t>
     <rPh sb="0" eb="2">
@@ -345,7 +360,33 @@
     <t>A3</t>
   </si>
   <si>
-    <t>近藤　亜希</t>
+    <t>伊藤ファミリー</t>
+    <rPh sb="0" eb="2">
+      <t>イトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←この列に、yyyy/mm/dd形式で対象となる特別予約日を入力してください</t>
+    <rPh sb="3" eb="4">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>トクベツ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>ヨヤクビ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -486,7 +527,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="9">
     <dxf>
       <font>
         <b/>
@@ -559,6 +600,12 @@
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -579,8 +626,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{82FA74CF-B7E1-4A03-9770-9F2465883F97}" name="User" displayName="User" ref="A1:D7" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F26DD654-6ED2-44CC-891F-168494550FD6}" name="User6" displayName="User6" ref="A1:D7" totalsRowShown="0">
   <autoFilter ref="A1:D7" xr:uid="{82FA74CF-B7E1-4A03-9770-9F2465883F97}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{156DC388-7111-4EDF-A254-6F880F293D34}" name="ID" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{23ADE132-7BCA-4339-913E-3CBBD6AA62DC}" name="Password" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{4B020137-D2D8-4498-989D-CE62CDC13531}" name="Name"/>
+    <tableColumn id="4" xr3:uid="{D305371A-D943-4C6C-8D41-D1DC166C2081}" name="TimePattern"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{82FA74CF-B7E1-4A03-9770-9F2465883F97}" name="User" displayName="User" ref="A1:D5" totalsRowShown="0">
+  <autoFilter ref="A1:D5" xr:uid="{82FA74CF-B7E1-4A03-9770-9F2465883F97}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{0E14C2CC-EEBD-4C0A-AFAA-21A763BF3936}" name="ID" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{2F5EA79F-85D9-43CC-9023-EF5498EF74B6}" name="Password" dataDxfId="5"/>
@@ -591,7 +651,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A7682D0-F8E0-4B36-8B2E-25F95A75CDC6}" name="テーブル2" displayName="テーブル2" ref="A1:A3" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="A1:A3" xr:uid="{8A7682D0-F8E0-4B36-8B2E-25F95A75CDC6}"/>
   <tableColumns count="1">
@@ -601,7 +661,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{65AD8F92-C7C7-413E-81AC-D1B25713C51F}" name="テーブル3" displayName="テーブル3" ref="B1:B9" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="B1:B9" xr:uid="{65AD8F92-C7C7-413E-81AC-D1B25713C51F}"/>
   <tableColumns count="1">
@@ -611,7 +671,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D575A523-8791-4A2A-B96E-58292593B460}" name="テーブル4" displayName="テーブル4" ref="C1:C6" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="C1:C6" xr:uid="{D575A523-8791-4A2A-B96E-58292593B460}"/>
   <tableColumns count="1">
@@ -945,11 +1005,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F9F9955-52FE-42F9-8C6D-0DBE8AB9F147}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B80AFD-8CA4-431A-AF69-3FBA15E19009}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1046,7 +1107,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="14">
-        <v>52002338</v>
+        <v>50020793</v>
       </c>
       <c r="B7" s="14">
         <v>1234</v>
@@ -1068,10 +1129,107 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F9F9955-52FE-42F9-8C6D-0DBE8AB9F147}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="13.19921875" customWidth="1"/>
+    <col min="2" max="2" width="13.69921875" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.69921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="2">
+        <v>52003401</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1234</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="2">
+        <v>52003400</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1234</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="10">
+        <v>51010034</v>
+      </c>
+      <c r="B4" s="10">
+        <v>1234</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="12">
+        <v>51010035</v>
+      </c>
+      <c r="B5" s="12">
+        <v>1234</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B9B8BD-4052-403E-B293-911624F1E6FE}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1998,12 +2156,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48EFC0BF-A792-4A28-85DB-F2DDF83B903D}">
-  <dimension ref="A1:G25"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G25"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2045,13 +2204,13 @@
       </c>
       <c r="D2" s="2" t="str">
         <f>IF(AND(F2&lt;&gt;"",G2&lt;&gt;""),TEXT(F2,"H:MM")&amp;"～"&amp;TEXT(G2,"H:MM"),"")</f>
-        <v>9:00～11:00</v>
+        <v>7:00～9:00</v>
       </c>
       <c r="F2" s="4">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="G2" s="4">
         <v>0.375</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -2065,14 +2224,14 @@
         <v>51</v>
       </c>
       <c r="D3" s="2" t="str">
-        <f t="shared" ref="D3:D5" si="0">IF(AND(F3&lt;&gt;"",G3&lt;&gt;""),TEXT(F3,"H:MM")&amp;"～"&amp;TEXT(G3,"H:MM"),"")</f>
-        <v>11:00～13:00</v>
+        <f>IF(AND(F3&lt;&gt;"",G3&lt;&gt;""),TEXT(F3,"H:MM")&amp;"～"&amp;TEXT(G3,"H:MM"),"")</f>
+        <v>9:00～11:00</v>
       </c>
       <c r="F3" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="G3" s="4">
         <v>0.45833333333333331</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -2086,14 +2245,14 @@
         <v>51</v>
       </c>
       <c r="D4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>13:00～15:00</v>
+        <f t="shared" ref="D4:D6" si="0">IF(AND(F4&lt;&gt;"",G4&lt;&gt;""),TEXT(F4,"H:MM")&amp;"～"&amp;TEXT(G4,"H:MM"),"")</f>
+        <v>11:00～13:00</v>
       </c>
       <c r="F4" s="4">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G4" s="4">
         <v>0.54166666666666663</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0.625</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -2108,18 +2267,18 @@
       </c>
       <c r="D5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>15:00～17:00</v>
-      </c>
-      <c r="F5" s="3">
+        <v>13:00～15:00</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G5" s="3">
         <v>0.625</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0.70833333333333337</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -2128,14 +2287,14 @@
         <v>51</v>
       </c>
       <c r="D6" s="2" t="str">
-        <f>IF(AND(F6&lt;&gt;"",G6&lt;&gt;""),TEXT(F6,"H:MM")&amp;"～"&amp;TEXT(G6,"H:MM"),"")</f>
-        <v>9:00～11:00</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0.45833333333333331</v>
+        <f t="shared" si="0"/>
+        <v>15:00～17:00</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.70833333333333337</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -2149,14 +2308,14 @@
         <v>51</v>
       </c>
       <c r="D7" s="2" t="str">
-        <f t="shared" ref="D7:D9" si="1">IF(AND(F7&lt;&gt;"",G7&lt;&gt;""),TEXT(F7,"H:MM")&amp;"～"&amp;TEXT(G7,"H:MM"),"")</f>
-        <v>11:00～13:00</v>
+        <f>IF(AND(F7&lt;&gt;"",G7&lt;&gt;""),TEXT(F7,"H:MM")&amp;"～"&amp;TEXT(G7,"H:MM"),"")</f>
+        <v>7:00～9:00</v>
       </c>
       <c r="F7" s="4">
-        <v>0.45833333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="G7" s="4">
-        <v>0.54166666666666663</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -2170,14 +2329,14 @@
         <v>51</v>
       </c>
       <c r="D8" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>13:00～15:00</v>
+        <f>IF(AND(F8&lt;&gt;"",G8&lt;&gt;""),TEXT(F8,"H:MM")&amp;"～"&amp;TEXT(G8,"H:MM"),"")</f>
+        <v>9:00～11:00</v>
       </c>
       <c r="F8" s="4">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0.625</v>
+        <v>0.375</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
@@ -2191,56 +2350,56 @@
         <v>51</v>
       </c>
       <c r="D9" s="2" t="str">
+        <f t="shared" ref="D9:D11" si="1">IF(AND(F9&lt;&gt;"",G9&lt;&gt;""),TEXT(F9,"H:MM")&amp;"～"&amp;TEXT(G9,"H:MM"),"")</f>
+        <v>11:00～13:00</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>13:00～15:00</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="2" t="str">
         <f t="shared" si="1"/>
         <v>15:00～17:00</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F11" s="3">
         <v>0.625</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G11" s="3">
         <v>0.70833333333333337</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="2" t="str">
-        <f>IF(AND(F10&lt;&gt;"",G10&lt;&gt;""),TEXT(F10,"H:MM")&amp;"～"&amp;TEXT(G10,"H:MM"),"")</f>
-        <v>9:00～11:00</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="2" t="str">
-        <f t="shared" ref="D11:D13" si="2">IF(AND(F11&lt;&gt;"",G11&lt;&gt;""),TEXT(F11,"H:MM")&amp;"～"&amp;TEXT(G11,"H:MM"),"")</f>
-        <v>11:00～13:00</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -2254,14 +2413,14 @@
         <v>51</v>
       </c>
       <c r="D12" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>13:00～15:00</v>
+        <f>IF(AND(F12&lt;&gt;"",G12&lt;&gt;""),TEXT(F12,"H:MM")&amp;"～"&amp;TEXT(G12,"H:MM"),"")</f>
+        <v>7:00～9:00</v>
       </c>
       <c r="F12" s="4">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0.625</v>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.375</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
@@ -2275,77 +2434,77 @@
         <v>51</v>
       </c>
       <c r="D13" s="2" t="str">
+        <f>IF(AND(F13&lt;&gt;"",G13&lt;&gt;""),TEXT(F13,"H:MM")&amp;"～"&amp;TEXT(G13,"H:MM"),"")</f>
+        <v>9:00～11:00</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="2" t="str">
+        <f t="shared" ref="D14:D16" si="2">IF(AND(F14&lt;&gt;"",G14&lt;&gt;""),TEXT(F14,"H:MM")&amp;"～"&amp;TEXT(G14,"H:MM"),"")</f>
+        <v>11:00～13:00</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>13:00～15:00</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="2" t="str">
         <f t="shared" si="2"/>
         <v>15:00～17:00</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F16" s="3">
         <v>0.625</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G16" s="3">
         <v>0.70833333333333337</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="2" t="str">
-        <f>IF(AND(F14&lt;&gt;"",G14&lt;&gt;""),TEXT(F14,"H:MM")&amp;"～"&amp;TEXT(G14,"H:MM"),"")</f>
-        <v>9:00～11:00</v>
-      </c>
-      <c r="F14" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="G14" s="4">
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="2" t="str">
-        <f t="shared" ref="D15:D17" si="3">IF(AND(F15&lt;&gt;"",G15&lt;&gt;""),TEXT(F15,"H:MM")&amp;"～"&amp;TEXT(G15,"H:MM"),"")</f>
-        <v>11:00～13:00</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="G15" s="4">
-        <v>0.54166666666666663</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>13:00～15:00</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0.625</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
@@ -2359,77 +2518,77 @@
         <v>31</v>
       </c>
       <c r="D17" s="2" t="str">
+        <f>IF(AND(F17&lt;&gt;"",G17&lt;&gt;""),TEXT(F17,"H:MM")&amp;"～"&amp;TEXT(G17,"H:MM"),"")</f>
+        <v>9:00～11:00</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="2" t="str">
+        <f t="shared" ref="D18:D20" si="3">IF(AND(F18&lt;&gt;"",G18&lt;&gt;""),TEXT(F18,"H:MM")&amp;"～"&amp;TEXT(G18,"H:MM"),"")</f>
+        <v>11:00～13:00</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>13:00～15:00</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="2" t="str">
         <f t="shared" si="3"/>
         <v>15:00～17:00</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F20" s="3">
         <v>0.625</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G20" s="3">
         <v>0.70833333333333337</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="2" t="str">
-        <f>IF(AND(F18&lt;&gt;"",G18&lt;&gt;""),TEXT(F18,"H:MM")&amp;"～"&amp;TEXT(G18,"H:MM"),"")</f>
-        <v>9:00～11:00</v>
-      </c>
-      <c r="F18" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="G18" s="4">
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="2" t="str">
-        <f t="shared" ref="D19:D21" si="4">IF(AND(F19&lt;&gt;"",G19&lt;&gt;""),TEXT(F19,"H:MM")&amp;"～"&amp;TEXT(G19,"H:MM"),"")</f>
-        <v>11:00～13:00</v>
-      </c>
-      <c r="F19" s="4">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="G19" s="4">
-        <v>0.54166666666666663</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>13:00～15:00</v>
-      </c>
-      <c r="F20" s="4">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0.625</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
@@ -2443,77 +2602,77 @@
         <v>31</v>
       </c>
       <c r="D21" s="2" t="str">
+        <f>IF(AND(F21&lt;&gt;"",G21&lt;&gt;""),TEXT(F21,"H:MM")&amp;"～"&amp;TEXT(G21,"H:MM"),"")</f>
+        <v>9:00～11:00</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="2" t="str">
+        <f t="shared" ref="D22:D24" si="4">IF(AND(F22&lt;&gt;"",G22&lt;&gt;""),TEXT(F22,"H:MM")&amp;"～"&amp;TEXT(G22,"H:MM"),"")</f>
+        <v>11:00～13:00</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>13:00～15:00</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="2" t="str">
         <f t="shared" si="4"/>
         <v>15:00～17:00</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F24" s="3">
         <v>0.625</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G24" s="3">
         <v>0.70833333333333337</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="2" t="str">
-        <f>IF(AND(F22&lt;&gt;"",G22&lt;&gt;""),TEXT(F22,"H:MM")&amp;"～"&amp;TEXT(G22,"H:MM"),"")</f>
-        <v>9:00～11:00</v>
-      </c>
-      <c r="F22" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="G22" s="4">
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="2" t="str">
-        <f t="shared" ref="D23:D25" si="5">IF(AND(F23&lt;&gt;"",G23&lt;&gt;""),TEXT(F23,"H:MM")&amp;"～"&amp;TEXT(G23,"H:MM"),"")</f>
-        <v>11:00～13:00</v>
-      </c>
-      <c r="F23" s="4">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="G23" s="4">
-        <v>0.54166666666666663</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>13:00～15:00</v>
-      </c>
-      <c r="F24" s="4">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0.625</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
@@ -2527,13 +2686,76 @@
         <v>30</v>
       </c>
       <c r="D25" s="2" t="str">
+        <f>IF(AND(F25&lt;&gt;"",G25&lt;&gt;""),TEXT(F25,"H:MM")&amp;"～"&amp;TEXT(G25,"H:MM"),"")</f>
+        <v>9:00～11:00</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="2" t="str">
+        <f t="shared" ref="D26:D28" si="5">IF(AND(F26&lt;&gt;"",G26&lt;&gt;""),TEXT(F26,"H:MM")&amp;"～"&amp;TEXT(G26,"H:MM"),"")</f>
+        <v>11:00～13:00</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>13:00～15:00</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="2" t="str">
         <f t="shared" si="5"/>
         <v>15:00～17:00</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F28" s="3">
         <v>0.625</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G28" s="3">
         <v>0.70833333333333337</v>
       </c>
     </row>
@@ -2549,10 +2771,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B25" xr:uid="{3505AB5B-56F4-4110-B6D6-5BAEAA76446B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B28" xr:uid="{3505AB5B-56F4-4110-B6D6-5BAEAA76446B}">
       <formula1>FacilityName</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C25" xr:uid="{ECC24A32-4B5B-4470-A5F3-F29CE64B066F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C28" xr:uid="{ECC24A32-4B5B-4470-A5F3-F29CE64B066F}">
       <formula1>Court</formula1>
     </dataValidation>
   </dataValidations>
@@ -2560,32 +2782,42 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0936F6D6-8130-47E1-9C0C-F6826C966DCC}">
-  <dimension ref="A1:A4"/>
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A2" s="5"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A3" s="5"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A4" s="5"/>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="5">
+        <v>45948</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="5">
+        <v>45949</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="5">
+        <v>45955</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2594,8 +2826,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{545FE8D7-0BDD-45E6-A797-B47090567347}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2692,15 +2925,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1DBA475-C254-494B-8936-C658DBB36129}">
-  <sheetPr>
+  <sheetPr codeName="Sheet6">
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:I2085"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4089,9 +4322,9 @@
       <c r="A50">
         <v>50020623</v>
       </c>
-      <c r="B50" s="2" t="str">
+      <c r="B50" s="2" t="e">
         <f>IF(A50&lt;&gt;"",_xlfn.XLOOKUP(A50,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>川渕　菜穂</v>
+        <v>#N/A</v>
       </c>
       <c r="C50" t="s">
         <v>6</v>
@@ -4117,9 +4350,9 @@
       <c r="A51">
         <v>50020623</v>
       </c>
-      <c r="B51" s="2" t="str">
+      <c r="B51" s="2" t="e">
         <f>IF(A51&lt;&gt;"",_xlfn.XLOOKUP(A51,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>川渕　菜穂</v>
+        <v>#N/A</v>
       </c>
       <c r="C51" t="s">
         <v>6</v>
@@ -4145,9 +4378,9 @@
       <c r="A52">
         <v>50020623</v>
       </c>
-      <c r="B52" s="2" t="str">
+      <c r="B52" s="2" t="e">
         <f>IF(A52&lt;&gt;"",_xlfn.XLOOKUP(A52,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>川渕　菜穂</v>
+        <v>#N/A</v>
       </c>
       <c r="C52" t="s">
         <v>6</v>
@@ -4173,9 +4406,9 @@
       <c r="A53">
         <v>50020623</v>
       </c>
-      <c r="B53" s="2" t="str">
+      <c r="B53" s="2" t="e">
         <f>IF(A53&lt;&gt;"",_xlfn.XLOOKUP(A53,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>川渕　菜穂</v>
+        <v>#N/A</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
@@ -4201,9 +4434,9 @@
       <c r="A54">
         <v>50020623</v>
       </c>
-      <c r="B54" s="2" t="str">
+      <c r="B54" s="2" t="e">
         <f>IF(A54&lt;&gt;"",_xlfn.XLOOKUP(A54,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>川渕　菜穂</v>
+        <v>#N/A</v>
       </c>
       <c r="C54" t="s">
         <v>6</v>
@@ -4229,9 +4462,9 @@
       <c r="A55">
         <v>50020623</v>
       </c>
-      <c r="B55" s="2" t="str">
+      <c r="B55" s="2" t="e">
         <f>IF(A55&lt;&gt;"",_xlfn.XLOOKUP(A55,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>川渕　菜穂</v>
+        <v>#N/A</v>
       </c>
       <c r="C55" t="s">
         <v>6</v>
@@ -4257,9 +4490,9 @@
       <c r="A56">
         <v>50020623</v>
       </c>
-      <c r="B56" s="2" t="str">
+      <c r="B56" s="2" t="e">
         <f>IF(A56&lt;&gt;"",_xlfn.XLOOKUP(A56,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>川渕　菜穂</v>
+        <v>#N/A</v>
       </c>
       <c r="C56" t="s">
         <v>6</v>
@@ -4285,9 +4518,9 @@
       <c r="A57">
         <v>50020623</v>
       </c>
-      <c r="B57" s="2" t="str">
+      <c r="B57" s="2" t="e">
         <f>IF(A57&lt;&gt;"",_xlfn.XLOOKUP(A57,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>川渕　菜穂</v>
+        <v>#N/A</v>
       </c>
       <c r="C57" t="s">
         <v>13</v>
@@ -4313,9 +4546,9 @@
       <c r="A58">
         <v>50020623</v>
       </c>
-      <c r="B58" s="2" t="str">
+      <c r="B58" s="2" t="e">
         <f>IF(A58&lt;&gt;"",_xlfn.XLOOKUP(A58,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>川渕　菜穂</v>
+        <v>#N/A</v>
       </c>
       <c r="C58" t="s">
         <v>13</v>
@@ -4341,9 +4574,9 @@
       <c r="A59">
         <v>50020623</v>
       </c>
-      <c r="B59" s="2" t="str">
+      <c r="B59" s="2" t="e">
         <f>IF(A59&lt;&gt;"",_xlfn.XLOOKUP(A59,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>川渕　菜穂</v>
+        <v>#N/A</v>
       </c>
       <c r="C59" t="s">
         <v>13</v>
@@ -4369,9 +4602,9 @@
       <c r="A60">
         <v>50020623</v>
       </c>
-      <c r="B60" s="2" t="str">
+      <c r="B60" s="2" t="e">
         <f>IF(A60&lt;&gt;"",_xlfn.XLOOKUP(A60,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>川渕　菜穂</v>
+        <v>#N/A</v>
       </c>
       <c r="C60" t="s">
         <v>13</v>
@@ -4397,9 +4630,9 @@
       <c r="A61">
         <v>50020623</v>
       </c>
-      <c r="B61" s="2" t="str">
+      <c r="B61" s="2" t="e">
         <f>IF(A61&lt;&gt;"",_xlfn.XLOOKUP(A61,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>川渕　菜穂</v>
+        <v>#N/A</v>
       </c>
       <c r="C61" t="s">
         <v>13</v>
@@ -4425,9 +4658,9 @@
       <c r="A62">
         <v>52002338</v>
       </c>
-      <c r="B62" s="2" t="str">
+      <c r="B62" s="2" t="e">
         <f>IF(A62&lt;&gt;"",_xlfn.XLOOKUP(A62,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>近藤　亜希</v>
+        <v>#N/A</v>
       </c>
       <c r="C62" t="s">
         <v>6</v>
@@ -4453,9 +4686,9 @@
       <c r="A63">
         <v>52002338</v>
       </c>
-      <c r="B63" s="2" t="str">
+      <c r="B63" s="2" t="e">
         <f>IF(A63&lt;&gt;"",_xlfn.XLOOKUP(A63,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>近藤　亜希</v>
+        <v>#N/A</v>
       </c>
       <c r="C63" t="s">
         <v>6</v>
@@ -4481,9 +4714,9 @@
       <c r="A64">
         <v>52002338</v>
       </c>
-      <c r="B64" s="2" t="str">
+      <c r="B64" s="2" t="e">
         <f>IF(A64&lt;&gt;"",_xlfn.XLOOKUP(A64,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>近藤　亜希</v>
+        <v>#N/A</v>
       </c>
       <c r="C64" t="s">
         <v>6</v>
@@ -4509,9 +4742,9 @@
       <c r="A65">
         <v>52002338</v>
       </c>
-      <c r="B65" s="2" t="str">
+      <c r="B65" s="2" t="e">
         <f>IF(A65&lt;&gt;"",_xlfn.XLOOKUP(A65,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>近藤　亜希</v>
+        <v>#N/A</v>
       </c>
       <c r="C65" t="s">
         <v>6</v>
@@ -4537,9 +4770,9 @@
       <c r="A66">
         <v>52002338</v>
       </c>
-      <c r="B66" s="2" t="str">
+      <c r="B66" s="2" t="e">
         <f>IF(A66&lt;&gt;"",_xlfn.XLOOKUP(A66,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>近藤　亜希</v>
+        <v>#N/A</v>
       </c>
       <c r="C66" t="s">
         <v>6</v>
@@ -4565,9 +4798,9 @@
       <c r="A67">
         <v>52002338</v>
       </c>
-      <c r="B67" s="2" t="str">
+      <c r="B67" s="2" t="e">
         <f>IF(A67&lt;&gt;"",_xlfn.XLOOKUP(A67,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>近藤　亜希</v>
+        <v>#N/A</v>
       </c>
       <c r="C67" t="s">
         <v>6</v>
@@ -4593,9 +4826,9 @@
       <c r="A68">
         <v>52002338</v>
       </c>
-      <c r="B68" s="2" t="str">
+      <c r="B68" s="2" t="e">
         <f>IF(A68&lt;&gt;"",_xlfn.XLOOKUP(A68,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>近藤　亜希</v>
+        <v>#N/A</v>
       </c>
       <c r="C68" t="s">
         <v>6</v>
@@ -4621,9 +4854,9 @@
       <c r="A69">
         <v>52002338</v>
       </c>
-      <c r="B69" s="2" t="str">
+      <c r="B69" s="2" t="e">
         <f>IF(A69&lt;&gt;"",_xlfn.XLOOKUP(A69,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>近藤　亜希</v>
+        <v>#N/A</v>
       </c>
       <c r="C69" t="s">
         <v>13</v>
@@ -4649,9 +4882,9 @@
       <c r="A70">
         <v>52002338</v>
       </c>
-      <c r="B70" s="2" t="str">
+      <c r="B70" s="2" t="e">
         <f>IF(A70&lt;&gt;"",_xlfn.XLOOKUP(A70,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>近藤　亜希</v>
+        <v>#N/A</v>
       </c>
       <c r="C70" t="s">
         <v>13</v>
@@ -4677,9 +4910,9 @@
       <c r="A71">
         <v>52002338</v>
       </c>
-      <c r="B71" s="2" t="str">
+      <c r="B71" s="2" t="e">
         <f>IF(A71&lt;&gt;"",_xlfn.XLOOKUP(A71,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>近藤　亜希</v>
+        <v>#N/A</v>
       </c>
       <c r="C71" t="s">
         <v>13</v>
@@ -4705,9 +4938,9 @@
       <c r="A72">
         <v>52002338</v>
       </c>
-      <c r="B72" s="2" t="str">
+      <c r="B72" s="2" t="e">
         <f>IF(A72&lt;&gt;"",_xlfn.XLOOKUP(A72,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>近藤　亜希</v>
+        <v>#N/A</v>
       </c>
       <c r="C72" t="s">
         <v>13</v>
@@ -4733,9 +4966,9 @@
       <c r="A73">
         <v>52002338</v>
       </c>
-      <c r="B73" s="2" t="str">
+      <c r="B73" s="2" t="e">
         <f>IF(A73&lt;&gt;"",_xlfn.XLOOKUP(A73,UserCredentials!A:A,UserCredentials!C:C),"")</f>
-        <v>近藤　亜希</v>
+        <v>#N/A</v>
       </c>
       <c r="C73" t="s">
         <v>13</v>
@@ -24897,8 +25130,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48758F4A-E0F1-4DC0-B76B-A91E1835C508}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
